--- a/data/georgia_census/qvemo-qartli/bolnisi/population_total.xlsx
+++ b/data/georgia_census/qvemo-qartli/bolnisi/population_total.xlsx
@@ -1352,13 +1352,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B49F6201-432B-4774-B48B-6182DDCBF4AD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0099B85-FCC3-4E46-8BE7-4859C86CEBDB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6525CD7F-1964-4108-ADFE-2DD0EE3AFB63}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B729DC83-FE8C-4C9E-92CC-217D54537C1B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00FE5651-2B92-407F-8620-5F4428D4902F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86C1CAFD-8245-4612-8025-49F2E80A80AE}"/>
 </file>